--- a/people.xlsx
+++ b/people.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garikaigijima/Documents/oop-projects/App-7-Automated-Emails/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCB7917-E520-CE4C-916C-1716B4734691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9A87DA-7D39-B944-A312-F3EB8DF2969F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,47 +34,47 @@
     <t>interest</t>
   </si>
   <si>
-    <t>Smith</t>
+    <t>name1</t>
   </si>
   <si>
-    <t>Sim</t>
+    <t>surnam1</t>
   </si>
   <si>
-    <t>Kann</t>
+    <t>email1</t>
   </si>
   <si>
-    <t>garymcmascelyn@gmail.com</t>
+    <t>name2</t>
   </si>
   <si>
-    <t>Gijima</t>
+    <t>surname2</t>
   </si>
   <si>
-    <t>Garikai</t>
+    <t>email2</t>
   </si>
   <si>
-    <t>Grayson</t>
+    <t>interest1</t>
   </si>
   <si>
-    <t>gijimaga@grinnell.edu</t>
+    <t>interest2</t>
   </si>
   <si>
-    <t>art</t>
+    <t>interest3</t>
   </si>
   <si>
-    <t>manga</t>
+    <t>email3</t>
   </si>
   <si>
-    <t>Zimbabwe</t>
+    <t>surname3</t>
   </si>
   <si>
-    <t>garikaizer@gmail.com</t>
+    <t>name3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -85,21 +85,16 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -354,7 +349,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -373,9 +368,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -406,12 +398,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -419,6 +405,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1588,7 +1580,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1617,97 +1609,97 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
-        <v>9</v>
+      <c r="A2" s="19" t="s">
+        <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>8</v>
+      <c r="B2" s="15" t="s">
+        <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>7</v>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>13</v>
+      <c r="D2" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
-        <v>10</v>
+      <c r="A3" s="5" t="s">
+        <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
+      <c r="B3" s="20" t="s">
+        <v>8</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>14</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="garymcmascelyn@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" display="gijimaga@grinnell.edu" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" display="garikaizer@gmail.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
